--- a/excel/atoms.xlsx
+++ b/excel/atoms.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\-chemistry\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="367">
   <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33489,11 +33494,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -33900,7 +33913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -33908,26 +33921,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.796875" style="1"/>
+    <col min="1" max="5" width="8.75" style="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="7" max="7" width="70.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>234</v>
       </c>
@@ -33955,8 +33968,11 @@
       <c r="I1" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -33984,8 +34000,11 @@
       <c r="I2" s="1">
         <v>1312</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -34013,8 +34032,11 @@
       <c r="I3" s="1">
         <v>2372.3000000000002</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -34042,8 +34064,11 @@
       <c r="I4" s="1">
         <v>520.20000000000005</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -34071,8 +34096,11 @@
       <c r="I5" s="1">
         <v>899.5</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -34100,8 +34128,11 @@
       <c r="I6" s="1">
         <v>800.6</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -34129,8 +34160,11 @@
       <c r="I7" s="1">
         <v>1086.5</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -34158,8 +34192,11 @@
       <c r="I8" s="1">
         <v>1402.3</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -34187,8 +34224,11 @@
       <c r="I9" s="1">
         <v>1313.9</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -34216,8 +34256,11 @@
       <c r="I10" s="1">
         <v>1681</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -34245,8 +34288,11 @@
       <c r="I11" s="1">
         <v>2080.6999999999998</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -34274,8 +34320,11 @@
       <c r="I12" s="1">
         <v>495.8</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -34303,8 +34352,11 @@
       <c r="I13" s="1">
         <v>737.7</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -34332,8 +34384,11 @@
       <c r="I14" s="1">
         <v>577.5</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -34361,8 +34416,11 @@
       <c r="I15" s="1">
         <v>786.5</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -34390,8 +34448,11 @@
       <c r="I16" s="1">
         <v>1011.8</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -34419,8 +34480,11 @@
       <c r="I17" s="1">
         <v>999.6</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -34448,8 +34512,11 @@
       <c r="I18" s="1">
         <v>1251.2</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -34477,8 +34544,11 @@
       <c r="I19" s="1">
         <v>1520.6</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -34506,8 +34576,11 @@
       <c r="I20" s="1">
         <v>418.8</v>
       </c>
+      <c r="J20" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -34535,8 +34608,11 @@
       <c r="I21" s="1">
         <v>589.79999999999995</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -34564,8 +34640,11 @@
       <c r="I22" s="1">
         <v>633.1</v>
       </c>
+      <c r="J22" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -34593,8 +34672,11 @@
       <c r="I23" s="1">
         <v>658.8</v>
       </c>
+      <c r="J23" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -34622,8 +34704,11 @@
       <c r="I24" s="1">
         <v>650.9</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -34651,8 +34736,11 @@
       <c r="I25" s="1">
         <v>652.9</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -34680,8 +34768,11 @@
       <c r="I26" s="1">
         <v>717.3</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -34709,8 +34800,11 @@
       <c r="I27" s="1">
         <v>762.5</v>
       </c>
+      <c r="J27" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -34738,8 +34832,11 @@
       <c r="I28" s="1">
         <v>760.4</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -34767,8 +34864,11 @@
       <c r="I29" s="1">
         <v>737.1</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -34796,8 +34896,11 @@
       <c r="I30" s="1">
         <v>745.5</v>
       </c>
+      <c r="J30" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -34825,8 +34928,11 @@
       <c r="I31" s="1">
         <v>906.4</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -34854,8 +34960,11 @@
       <c r="I32" s="1">
         <v>578.79999999999995</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -34883,8 +34992,11 @@
       <c r="I33" s="1">
         <v>762</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -34912,8 +35024,11 @@
       <c r="I34" s="1">
         <v>947</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -34941,8 +35056,11 @@
       <c r="I35" s="1">
         <v>941</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -34970,8 +35088,11 @@
       <c r="I36" s="1">
         <v>1139.9000000000001</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -34999,8 +35120,11 @@
       <c r="I37" s="1">
         <v>1350.8</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -35028,8 +35152,11 @@
       <c r="I38" s="1">
         <v>403</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -35057,8 +35184,11 @@
       <c r="I39" s="1">
         <v>549.5</v>
       </c>
+      <c r="J39" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -35086,8 +35216,11 @@
       <c r="I40" s="1">
         <v>600</v>
       </c>
+      <c r="J40" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -35115,8 +35248,11 @@
       <c r="I41" s="1">
         <v>640.1</v>
       </c>
+      <c r="J41" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -35144,8 +35280,11 @@
       <c r="I42" s="1">
         <v>652.1</v>
       </c>
+      <c r="J42" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -35173,8 +35312,11 @@
       <c r="I43" s="1">
         <v>684.3</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -35202,8 +35344,11 @@
       <c r="I44" s="1">
         <v>702</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -35231,8 +35376,11 @@
       <c r="I45" s="1">
         <v>710.2</v>
       </c>
+      <c r="J45" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -35260,8 +35408,11 @@
       <c r="I46" s="1">
         <v>719.7</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -35289,8 +35440,11 @@
       <c r="I47" s="1">
         <v>804.4</v>
       </c>
+      <c r="J47" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -35318,8 +35472,11 @@
       <c r="I48" s="1">
         <v>731</v>
       </c>
+      <c r="J48" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -35347,8 +35504,11 @@
       <c r="I49" s="1">
         <v>867.8</v>
       </c>
+      <c r="J49" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -35376,8 +35536,11 @@
       <c r="I50" s="1">
         <v>558.29999999999995</v>
       </c>
+      <c r="J50" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -35405,8 +35568,11 @@
       <c r="I51" s="1">
         <v>708.6</v>
       </c>
+      <c r="J51" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -35434,8 +35600,11 @@
       <c r="I52" s="1">
         <v>834</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -35463,8 +35632,11 @@
       <c r="I53" s="1">
         <v>869.3</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -35492,8 +35664,11 @@
       <c r="I54" s="1">
         <v>1008.4</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -35521,8 +35696,11 @@
       <c r="I55" s="1">
         <v>1170.4000000000001</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -35550,8 +35728,11 @@
       <c r="I56" s="1">
         <v>375.7</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -35579,8 +35760,11 @@
       <c r="I57" s="1">
         <v>502.9</v>
       </c>
+      <c r="J57" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -35608,8 +35792,11 @@
       <c r="I58" s="1">
         <v>538.1</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -35637,8 +35824,11 @@
       <c r="I59" s="1">
         <v>534.4</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -35666,8 +35856,11 @@
       <c r="I60" s="1">
         <v>527</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -35695,8 +35888,11 @@
       <c r="I61" s="1">
         <v>533.1</v>
       </c>
+      <c r="J61" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -35724,8 +35920,11 @@
       <c r="I62" s="1">
         <v>540</v>
       </c>
+      <c r="J62" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -35753,8 +35952,11 @@
       <c r="I63" s="1">
         <v>544.5</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -35782,8 +35984,11 @@
       <c r="I64" s="1">
         <v>547.1</v>
       </c>
+      <c r="J64" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -35811,8 +36016,11 @@
       <c r="I65" s="1">
         <v>593.4</v>
       </c>
+      <c r="J65" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -35840,8 +36048,11 @@
       <c r="I66" s="1">
         <v>565.79999999999995</v>
       </c>
+      <c r="J66" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -35869,8 +36080,11 @@
       <c r="I67" s="1">
         <v>573</v>
       </c>
+      <c r="J67" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -35898,8 +36112,11 @@
       <c r="I68" s="1">
         <v>581</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -35927,8 +36144,11 @@
       <c r="I69" s="1">
         <v>589.29999999999995</v>
       </c>
+      <c r="J69" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -35956,8 +36176,11 @@
       <c r="I70" s="1">
         <v>596.70000000000005</v>
       </c>
+      <c r="J70" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -35985,8 +36208,11 @@
       <c r="I71" s="1">
         <v>603.4</v>
       </c>
+      <c r="J71" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -36014,8 +36240,11 @@
       <c r="I72" s="1">
         <v>523.5</v>
       </c>
+      <c r="J72" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -36043,8 +36272,11 @@
       <c r="I73" s="1">
         <v>658.5</v>
       </c>
+      <c r="J73" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -36072,8 +36304,11 @@
       <c r="I74" s="1">
         <v>761</v>
       </c>
+      <c r="J74" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -36101,8 +36336,11 @@
       <c r="I75" s="1">
         <v>770</v>
       </c>
+      <c r="J75" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -36130,8 +36368,11 @@
       <c r="I76" s="1">
         <v>760</v>
       </c>
+      <c r="J76" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -36159,8 +36400,11 @@
       <c r="I77" s="1">
         <v>840</v>
       </c>
+      <c r="J77" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -36188,8 +36432,11 @@
       <c r="I78" s="1">
         <v>880</v>
       </c>
+      <c r="J78" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -36217,8 +36464,11 @@
       <c r="I79" s="1">
         <v>870</v>
       </c>
+      <c r="J79" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -36246,8 +36496,11 @@
       <c r="I80" s="1">
         <v>890.1</v>
       </c>
+      <c r="J80" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -36275,8 +36528,11 @@
       <c r="I81" s="1">
         <v>1007.1</v>
       </c>
+      <c r="J81" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -36304,8 +36560,11 @@
       <c r="I82" s="1">
         <v>589.4</v>
       </c>
+      <c r="J82" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -36333,8 +36592,11 @@
       <c r="I83" s="1">
         <v>715.6</v>
       </c>
+      <c r="J83" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -36362,8 +36624,11 @@
       <c r="I84" s="1">
         <v>703</v>
       </c>
+      <c r="J84" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -36391,8 +36656,11 @@
       <c r="I85" s="1">
         <v>812.1</v>
       </c>
+      <c r="J85" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -36420,8 +36688,11 @@
       <c r="I86" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="J86" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -36449,8 +36720,11 @@
       <c r="I87" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J87" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -36478,8 +36752,11 @@
       <c r="I88" s="1">
         <v>380</v>
       </c>
+      <c r="J88" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -36507,8 +36784,11 @@
       <c r="I89" s="1">
         <v>509.3</v>
       </c>
+      <c r="J89" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -36536,8 +36816,11 @@
       <c r="I90" s="1">
         <v>499</v>
       </c>
+      <c r="J90" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -36565,8 +36848,11 @@
       <c r="I91" s="1">
         <v>587</v>
       </c>
+      <c r="J91" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -36594,8 +36880,11 @@
       <c r="I92" s="1">
         <v>568</v>
       </c>
+      <c r="J92" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -36623,8 +36912,11 @@
       <c r="I93" s="1">
         <v>597.6</v>
       </c>
+      <c r="J93" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -36652,8 +36944,11 @@
       <c r="I94" s="1">
         <v>604.5</v>
       </c>
+      <c r="J94" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -36681,8 +36976,11 @@
       <c r="I95" s="1">
         <v>584.70000000000005</v>
       </c>
+      <c r="J95" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -36710,8 +37008,11 @@
       <c r="I96" s="1">
         <v>578</v>
       </c>
+      <c r="J96" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -36739,8 +37040,11 @@
       <c r="I97" s="1">
         <v>581</v>
       </c>
+      <c r="J97" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -36768,8 +37072,11 @@
       <c r="I98" s="1">
         <v>601</v>
       </c>
+      <c r="J98" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -36797,8 +37104,11 @@
       <c r="I99" s="1">
         <v>608</v>
       </c>
+      <c r="J99" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -36826,8 +37136,11 @@
       <c r="I100" s="1">
         <v>619</v>
       </c>
+      <c r="J100" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -36855,8 +37168,11 @@
       <c r="I101" s="1">
         <v>627</v>
       </c>
+      <c r="J101" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -36884,8 +37200,11 @@
       <c r="I102" s="1">
         <v>635</v>
       </c>
+      <c r="J102" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -36913,8 +37232,11 @@
       <c r="I103" s="1">
         <v>642</v>
       </c>
+      <c r="J103" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -36942,8 +37264,11 @@
       <c r="I104" s="1">
         <v>470</v>
       </c>
+      <c r="J104" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -36971,8 +37296,11 @@
       <c r="I105" s="1">
         <v>580</v>
       </c>
+      <c r="J105" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -37000,8 +37328,11 @@
       <c r="I106" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J106" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -37029,8 +37360,11 @@
       <c r="I107" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J107" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -37058,8 +37392,11 @@
       <c r="I108" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J108" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -37087,8 +37424,11 @@
       <c r="I109" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J109" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -37116,8 +37456,11 @@
       <c r="I110" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J110" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -37145,8 +37488,11 @@
       <c r="I111" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J111" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -37174,8 +37520,11 @@
       <c r="I112" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J112" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -37203,8 +37552,11 @@
       <c r="I113" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J113" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -37232,8 +37584,11 @@
       <c r="I114" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J114" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -37261,8 +37616,11 @@
       <c r="I115" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J115" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -37290,8 +37648,11 @@
       <c r="I116" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J116" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -37319,8 +37680,11 @@
       <c r="I117" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J117" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -37348,8 +37712,11 @@
       <c r="I118" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J118" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -37376,6 +37743,9 @@
       </c>
       <c r="I119" s="1" t="s">
         <v>241</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
